--- a/data/UNHCR-PRMN-Displacement-Dataset.xlsx
+++ b/data/UNHCR-PRMN-Displacement-Dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mugo\IM\dc.js\dataviz-somalia-prmn\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2017\dcj\orig\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:K3317"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/UNHCR-PRMN-Displacement-Dataset.xlsx
+++ b/data/UNHCR-PRMN-Displacement-Dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2017\dcj\Jan-2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2017\dcj\Feb-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24937" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26419" uniqueCount="128">
   <si>
     <t>Banadir</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>31/01/2018</t>
+  </si>
+  <si>
+    <t>28/02/2018</t>
   </si>
 </sst>
 </file>
@@ -1112,10 +1115,10 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K4157"/>
+  <dimension ref="A1:K4404"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A4359" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4359" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -93787,7 +93790,7 @@
         <v>83</v>
       </c>
       <c r="G3966">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3967" spans="1:7" x14ac:dyDescent="0.25">
@@ -93856,7 +93859,7 @@
         <v>83</v>
       </c>
       <c r="G3969">
-        <v>130</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3970" spans="1:7" x14ac:dyDescent="0.25">
@@ -94063,7 +94066,7 @@
         <v>83</v>
       </c>
       <c r="G3978">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3979" spans="1:7" x14ac:dyDescent="0.25">
@@ -96823,7 +96826,7 @@
         <v>83</v>
       </c>
       <c r="G4098">
-        <v>18</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4099" spans="1:7" x14ac:dyDescent="0.25">
@@ -96869,7 +96872,7 @@
         <v>83</v>
       </c>
       <c r="G4100">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4101" spans="1:7" x14ac:dyDescent="0.25">
@@ -96892,7 +96895,7 @@
         <v>83</v>
       </c>
       <c r="G4101">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4102" spans="1:7" x14ac:dyDescent="0.25">
@@ -98181,6 +98184,5687 @@
       </c>
       <c r="G4157">
         <v>29</v>
+      </c>
+    </row>
+    <row r="4158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4158" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4158" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4158" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4158" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4158" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4158">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4159" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4159" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4159" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4159" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4159" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4159" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4159">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4160" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4160" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4160" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4160" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4160" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4160" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4160">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4161" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4161" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4161" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4161" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4161" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4161">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4162" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4162" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4162" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4162" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4162" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4162">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4163" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4163" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4163" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4163" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4163" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4163">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4164" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4164" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4164" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4164" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4164" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4164" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4165" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4165" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4165" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4165" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4165" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4165" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4165">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="4166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4166" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4166" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4166" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4166" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4166" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4166">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4167" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4167" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4167" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4167" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4167" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4167">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4168" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4168" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4168" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4168" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4168" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4168" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4168">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4169" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4169" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4169" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4169" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4169" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4169" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4169">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="4170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4170" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4170" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4170" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4170" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4170" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4170">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="4171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4171" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4171" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4171" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4171" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4171" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4171" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4171">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4172" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4172" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4172" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4172" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4172" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4172">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4173" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4173" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4173" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4173" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4173" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4173" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4173">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4174" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4174" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4174" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4174" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4174" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4174" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4174">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4175" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4175" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4175" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4175" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4175" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4175">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4176" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4176" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4176" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4176" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4176" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4176" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4176">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4177" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4177" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4177" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4177" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4177" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4177">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4178" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4178" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4178" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4178" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4178" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4178" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4178">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4179" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4179" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4179" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4179" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4179" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4179">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4180" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4180" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4180" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4180" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4180" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4180" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4180">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4181" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4181" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4181" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4181" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4181">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4182" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4182" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4182" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4182" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4182" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4182" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4182">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4183" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4183" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4183" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4183" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4183" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4183" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4183">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4184" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4184" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4184" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4184" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4184" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4184" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4184">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4185" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4185" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4185" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4185" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4185" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4185" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4185">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4186" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4186" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4186" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4186" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4186" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4186" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4186">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="4187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4187" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4187" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4187" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4187" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4187" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4187" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4187">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="4188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4188" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4188" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4188" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4188" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4188" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4188" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4188">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4189" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4189" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4189" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4189" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4189" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4189" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4189">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4190" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4190" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4190" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4190" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4190" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4190" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4190">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="4191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4191" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4191" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4191" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4191" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4191" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4191" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4191">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="4192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4192" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4192" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4192" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4192" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4192" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4192" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4193" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4193" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4193" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4193" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4193" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4193" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4193">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="4194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4194" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4194" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4194" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4194" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4194" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4194" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4194">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="4195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4195" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4195" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4195" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4195" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4195" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4195" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4195">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4196" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4196" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4196" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4196" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4196" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4196">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4197" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4197" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4197" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4197" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4197" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4197" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4197">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4198" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4198" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4198" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4198" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4198" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4198" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4198">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4199" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4199" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4199" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4199" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4199">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4200" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4200" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4200" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4200" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4200" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4200">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4201" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4201" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4201" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4201" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4201">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="4202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4202" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4202" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4202" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4202" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4202" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4202" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4202">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4203" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4203" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4203" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4203" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4204" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4204" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4204" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4204" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4204" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4204">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4205" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4205" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4205" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4205" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4205" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4205">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4206" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4206" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4206" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4206" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4206" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4206">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4207" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4207" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4207" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4207" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4207" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4207">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4208" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4208" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4208" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4208" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4208" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4208" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4208">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4209" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4209" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4209" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4209" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4209" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4209" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4209">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="4210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4210" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4210" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4210" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4210" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4210" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4210">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4211" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4211" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4211" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4211" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4211" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4211" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4211">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4212" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4212" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4212" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4212" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4212" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4212" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4212">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4213" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4213" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4213" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4213" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4213" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4213" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4214" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4214" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4214" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4214" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4214" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4214" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4214">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4215" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4215" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4215" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4215" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4215" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4215" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4216" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4216" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4216" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4216" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4216" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4216" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4216">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4217" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4217" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4217" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4217" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4217" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4217" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4217">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4218" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4218" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4218" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4218" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4218" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4218" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4218">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4219" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4219" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4219" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4219" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4219" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4219" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4219">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4220" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4220" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4220" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4220" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4220" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4220" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4220">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4221" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4221" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4221" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4221" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4221" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4221" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4221">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4222" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4222" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4222" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4222" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4222" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4222" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4222">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4223" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4223" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4223" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4223" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4223" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4223" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4224" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4224" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4224" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4224" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4224" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4224" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4224">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4225" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4225" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4225" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4225" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4225" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4225" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4225">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4226" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4226" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4226" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4226" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4226" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4226" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4226">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4227" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4227" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4227" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4227" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4227" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4227" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4227">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4228" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4228" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4228" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4228" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4228" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4228" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4228">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4229" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4229" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4229" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4229" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4229" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4229" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4229">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4230" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4230" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4230" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4230" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4230" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4230" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4230">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4231" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4231" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4231" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4231" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4231" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4231" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4231">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4232" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4232" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4232" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4232" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4232" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4232" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4232">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4233" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4233" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4233" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4233" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4233" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4233" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4233">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4234" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4234" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4234" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4234" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4234" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4234" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4234">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4235" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4235" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4235" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4235" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4235" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4235" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4235">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4236" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4236" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4236" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4236" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4236" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4236" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4236">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="4237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4237" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4237" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4237" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4237" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4237" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4237" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4237">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4238" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4238" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4238" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4238" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4238" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4238" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4238">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4239" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4239" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4239" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4239" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4239" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4239" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4239">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="4240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4240" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4240" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4240" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4240" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4240" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4240" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4240">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4241" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4241" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4241" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4241" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4241" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4241" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4241">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="4242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4242" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4242" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4242" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4242" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4242" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4242" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4242">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="4243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4243" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4243" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4243" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4243" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4243" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4243" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4243">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4244" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4244" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4244" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4244" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4244" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4244" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4244">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4245" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4245" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4245" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4245" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4245" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4245" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4245">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4246" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4246" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4246" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4246" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4246" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4246" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4246">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="4247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4247" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4247" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4247" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4247" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4247" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4247" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4247">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4248" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4248" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4248" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4248" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4248" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4248" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4248">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="4249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4249" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4249" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4249" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4249" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4249" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4249" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4249">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4250" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4250" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4250" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4250" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4250" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4250" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4250">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4251" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4251" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4251" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4251" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4251" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4251" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4251">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4252" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4252" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4252" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4252" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4252" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4252" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4252">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4253" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4253" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4253" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4253" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4253" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4253" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4253">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4254" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4254" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4254" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4254" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4254" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4254" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4254">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4255" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4255" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4255" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4255" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4255" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4255" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4255">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4256" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4256" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4256" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4256" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4256" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4256" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4256">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4257" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4257" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4257" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4257" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4257" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4257" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4257">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4258" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4258" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4258" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4258" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4258" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4258" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4258">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4259" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4259" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4259" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4259" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4259" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4259" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4259">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4260" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4260" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4260" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4260" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4260" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4260" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4260">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4261" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4261" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4261" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4261" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4261" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4261" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4261">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4262" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4262" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4262" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4262" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4262" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4262" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4262">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4263" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4263" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4263" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4263" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4263" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4263" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4263">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4264" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4264" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4264" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4264" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4264" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4264" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4264">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4265" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4265" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4265" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4265" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4265" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4265" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4265">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4266" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4266" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4266" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4266" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4266" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4266" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4266">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4267" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4267" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4267" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4267" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4267" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4267" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4267">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4268" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4268" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4268" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4268" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4268" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4268" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4268">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4269" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4269" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4269" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4269" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4269" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4269" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4269">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4270" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4270" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4270" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4270" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4270" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4270" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4271" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4271" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4271" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4271" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4271" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4271" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4271">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4272" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4272" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4272" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4272" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4272" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4272" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4272">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4273" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4273" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4273" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4273" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4273" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4273" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4273">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4274" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4274" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4274" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4274" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4274" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4274" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4274">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4275" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4275" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4275" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4275" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4275" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4275" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4275">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4276" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4276" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4276" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4276" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4276" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4276" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4276">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4277" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4277" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4277" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4277" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4277" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4277" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4277">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4278" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4278" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4278" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4278" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4278" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4278" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4278">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4279" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4279" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4279" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4279" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4279" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4279" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4279">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4280" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4280" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4280" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4280" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4280" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4280" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4280">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4281" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4281" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4281" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4281" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4281" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4281" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4281">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4282" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4282" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4282" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4282" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4282" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4282" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4282">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4283" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4283" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4283" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4283" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4283" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4283" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4283">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4284" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4284" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4284" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4284" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4284" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4284" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4284">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="4285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4285" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4285" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4285" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4285" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4285" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4285" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4285">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4286" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4286" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4286" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4286" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4286" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4286" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4286">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4287" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4287" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4287" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4287" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4287" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4287" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4287">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4288" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4288" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4288" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4288" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4288" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4288" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4288">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4289" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4289" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4289" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4289" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4289" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4289" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4289">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4290" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4290" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4290" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4290" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4290" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4290" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4290">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4291" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4291" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4291" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4291" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4291" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4291" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4291">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4292" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4292" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4292" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4292" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4292" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4292" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4292">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4293" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4293" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4293" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4293" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4293" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4293" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4293">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4294" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4294" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4294" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4294" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4294" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4294">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4295" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4295" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4295" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4295" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4295" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4295" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4295">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4296" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4296" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4296" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4296" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4296" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4296" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4296">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4297" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4297" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4297" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4297" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4297" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4297" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4297">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4298" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4298" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4298" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4298" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4298" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4298" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4298">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4299" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4299" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4299" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4299" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4299" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4299" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4299">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4300" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4300" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4300" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4300" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4300" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4300" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4300">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4301" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4301" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4301" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4301" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4301" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4301" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4301">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4302" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4302" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4302" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4302" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4302" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4302" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4302">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4303" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4303" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4303" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4303" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4303" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4303" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4303">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4304" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4304" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4304" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4304" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4304" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4304" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4304">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4305" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4305" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4305" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4305" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4305" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4305" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4305">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4306" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4306" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4306" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4306" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4306" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4306" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4306">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4307" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4307" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4307" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4307" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4307" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4307" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4307">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4308" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4308" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4308" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4308" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4308" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4308">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4309" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4309" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4309" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4309" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4309" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4309" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4309">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4310" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4310" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4310" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4310" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4310" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4310" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4310">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4311" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4311" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4311" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4311" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4311" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4311">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4312" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4312" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4312" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4312" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4312" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4312" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4312">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4313" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4313" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4313" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4313" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4313" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4313" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4313">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4314" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4314" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4314" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4314" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4314" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4314" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4314">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4315" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4315" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4315" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4315" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4315" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4315" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4315">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4316" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4316" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4316" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4316" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4316" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4316" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4316">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4317" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4317" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4317" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4317" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4317" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4317">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4318" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4318" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4318" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4318" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4318" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4319" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4319" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4319" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4319" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4319" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4319" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4319">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4320" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4320" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4320" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4320" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4320" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4320" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4321" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4321" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4321" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4321" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4321" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4321" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4321">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4322" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4322" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4322" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4322" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4322" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4322">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4323" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4323" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4323" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4323" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4323" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4323" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4323">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4324" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4324" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4324" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4324" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4324" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4324" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4324">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4325" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4325" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4325" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4325" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4325" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4325" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4326" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4326" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4326" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4326" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4326" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4326" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4326">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4327" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4327" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4327" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4327" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4327" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4327" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4327">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4328" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4328" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4328" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4328" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4328" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4328" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4328">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4329" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4329" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4329" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4329" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4329" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4329">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4330" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4330" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4330" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4330" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4330" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4330" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4330">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4331" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4331" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4331" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4331" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4331" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4331" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4331">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4332" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4332" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4332" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4332" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4332" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4332" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4332">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4333" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4333" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4333" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4333" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4333" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4333" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4333">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4334" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4334" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4334" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4334" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4334" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4334" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4334">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4335" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4335" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4335" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4335" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4335" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4335" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4335">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4336" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4336" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4336" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4336" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4336" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4336" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4336">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4337" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4337" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4337" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4337" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4337" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4337" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4337">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4338" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4338" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4338" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4338" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4338" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4338" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4338">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4339" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4339" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4339" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4339" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4339" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4339" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4339">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4340" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4340" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4340" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4340" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4340" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4340" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4340">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4341" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4341" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4341" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4341" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4341" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4341" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4341">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4342" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4342" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4342" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4342" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4342" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4342" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4342">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4343" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4343" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4343" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4343" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4343" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4343" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4343">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4344" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4344" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4344" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4344" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4344" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4344" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4344">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4345" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4345" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4345" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4345" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4345" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4345" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4345">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4346" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4346" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4346" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4346" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4346" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4346" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4346">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4347" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4347" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4347" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4347" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4347" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4347" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4347">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4348" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4348" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4348" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4348" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4348" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4348" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4348">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4349" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4349" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4349" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4349" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4349" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4349" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4349">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4350" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4350" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4350" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4350" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4350" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4350" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4350">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4351" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4351" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4351" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4351" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4351" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4351" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4351">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4352" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4352" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4352" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4352" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4352" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4352" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4352">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4353" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4353" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4353" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4353" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4353" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4353" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4353">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4354" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4354" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4354" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4354" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4354" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4354" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4354">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4355" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4355" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4355" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4355" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4355" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4355" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4355">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4356" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4356" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4356" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4356" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4356" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4356" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4356">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4357" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4357" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4357" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4357" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4357" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4357" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4357">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4358" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4358" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4358" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4358" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4358" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4358" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4358">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4359" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4359" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4359" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4359" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4359" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4359" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4359">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4360" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4360" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4360" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4360" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4360" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4360" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4360">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4361" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4361" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4361" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4361" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4361" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4361" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4361">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4362" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4362" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4362" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4362" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4362" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4362" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4362">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4363" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4363" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4363" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4363" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4363" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4363" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4363">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4364" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4364" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4364" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4364" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4364" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4364" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4364">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4365" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4365" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4365" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4365" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4365" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4365" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4365">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4366" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4366" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4366" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4366" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4366" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4366" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4366">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4367" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4367" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4367" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4367" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4367" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4367" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4367">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4368" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4368" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4368" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4368" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4368" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4368" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4368">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4369" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4369" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4369" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4369" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4369" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4369" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4369">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4370" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4370" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4370" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4370" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4370" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4370" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4370">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4371" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4371" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4371" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4371" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4371" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4371" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4371">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4372" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4372" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4372" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4372" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4372" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4372" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4372">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4373" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4373" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4373" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4373" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4373" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4373" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4373">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4374" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4374" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4374" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4374" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4374" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4374" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4374">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4375" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4375" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4375" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4375" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4375" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4375" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4375">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4376" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4376" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4376" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4376" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4376" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4376" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4376">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4377" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4377" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4377" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4377" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4377" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4377" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4377">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4378" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4378" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4378" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4378" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4378" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4378" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4378">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4379" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4379" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4379" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4379" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4379" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4379" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4379">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4380" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4380" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4380" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4380" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4380" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4380" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4380">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4381" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4381" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4381" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4381" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4381" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4381" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4381">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4382" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4382" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4382" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4382" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4382" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4382" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4382">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4383" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4383" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4383" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4383" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4383" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4383" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4383">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4384" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4384" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4384" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4384" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4384" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4384" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4384">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4385" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4385" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4385" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4385" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4385" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4385" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4385">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4386" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4386" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4386" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4386" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4386" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4386" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4386">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4387" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4387" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4387" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4387" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4387" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4387" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4387">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4388" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4388" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4388" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4388" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4388" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4388" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4388">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4389" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4389" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4389" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4389" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4389" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4389" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4389">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4390" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4390" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4390" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4390" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4390" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4390" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4390">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4391" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4391" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4391" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4391" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4391" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4391" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4391">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4392" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4392" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4392" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4392" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4392" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4392" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4392">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4393" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4393" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4393" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4393" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4393" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4393" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4393">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4394" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4394" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4394" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4394" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4394" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4394" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4394">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4395" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4395" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4395" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4395" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4395" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4395" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4395">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4396" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4396" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4396" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4396" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4396" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4396" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4396">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4397" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4397" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4397" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4397" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4397" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4397" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4397">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4398" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4398" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4398" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4398" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4398" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4398" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4398">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4399" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4399" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4399" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4399" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4399" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4399" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4399">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4400" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4400" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4400" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4400" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4400" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4400" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4400">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4401" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4401" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4401" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4401" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4401" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4401" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4401">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4402" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4402" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4402" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4402" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4402" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4402" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4402">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4403" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4403" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4403" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4403" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4403" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4403" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4403">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4404" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4404" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4404" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4404" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4404" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4404" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4404">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
